--- a/Data_structure.xlsx
+++ b/Data_structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>BSAN</t>
   </si>
@@ -208,6 +208,72 @@
   </si>
   <si>
     <t>Mapping</t>
+  </si>
+  <si>
+    <t>-1.0070 -0.7609 -0.6304 -0.5897 -0.4928  0.3913</t>
+  </si>
+  <si>
+    <t>Min. 1st Qu.  Median    Mean 3rd Qu.    Max.</t>
+  </si>
+  <si>
+    <t>-1.0360 -0.7909 -0.6909 -0.6297 -0.5455  0.4364</t>
+  </si>
+  <si>
+    <t>-1.1760 -0.8959 -0.7503 -0.6840 -0.5711  0.4031</t>
+  </si>
+  <si>
+    <t>-1.00100 -0.52580 -0.33150 -0.17260 -0.06517  3.59700</t>
+  </si>
+  <si>
+    <t>-1.3960 -0.8523  0.7535  0.4156  1.2410  4.8920</t>
+  </si>
+  <si>
+    <t>-0.8819  0.1895  0.6159  0.6545  1.0750  2.6450</t>
+  </si>
+  <si>
+    <t>-2.3660 -0.9454 -0.4523 -0.3949  0.1295  1.6670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.72000 -0.56850  0.04980  0.04727  0.80720  1.84400 </t>
+  </si>
+  <si>
+    <t>-1.1610 -0.8940 -0.7535 -0.6869 -0.5722  0.5724</t>
+  </si>
+  <si>
+    <t>-1.6430 -0.7774 -0.5645 -0.5320 -0.3080  0.5306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2670 -0.9172 -0.7164 -0.6359 -0.4265  0.6812 </t>
+  </si>
+  <si>
+    <t>-1.2690 -0.8988 -0.7278 -0.6392 -0.4274  0.5796</t>
+  </si>
+  <si>
+    <t>-0.6398 -0.4190 -0.1981  0.2024  0.3286  5.7310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6707  0.1063  0.5018  0.5563  0.9623  2.1800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8627  0.0899  0.7394  0.7296  1.1990  2.9760 </t>
+  </si>
+  <si>
+    <t>935 949</t>
+  </si>
+  <si>
+    <t>-0.535800 -0.451100 -0.348700  0.006442 -0.042650  9.646000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.88700 -0.71780 -0.17540 -0.02854  0.37640  3.41600 </t>
+  </si>
+  <si>
+    <t>-0.85790 -0.61560 -0.35000  0.08041  0.27510  7.62000</t>
+  </si>
+  <si>
+    <t>-0.41830 -0.34570 -0.26960 -0.01452 -0.08975 13.27000</t>
+  </si>
+  <si>
+    <t>-1.49300 -0.89960 -0.13470 -0.01265  0.78640  2.25200</t>
   </si>
 </sst>
 </file>
@@ -253,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,26 +381,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,229 +745,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H24"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" ht="18">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="18">
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="C9" s="8"/>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="18">
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="C10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="18">
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="18">
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="1" t="s">
+      <c r="C12" s="5"/>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
       <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
       <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="8">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data_structure.xlsx
+++ b/Data_structure.xlsx
@@ -280,7 +280,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -381,42 +397,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -745,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -757,16 +795,18 @@
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:12">
       <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
@@ -774,13 +814,27 @@
       <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="11">
+        <v>1157</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2/$E$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" ht="18">
+      <c r="I2" s="6"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="11">
+        <v>1884</v>
+      </c>
+      <c r="L2" s="12">
+        <f>K2/$K$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="18">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -790,15 +844,29 @@
       <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>350</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F7" si="0">E3/$E$2</f>
+        <v>0.30250648228176319</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>1880</v>
+      </c>
+      <c r="L3" s="10">
+        <f>K3/$K$2</f>
+        <v>0.99787685774946921</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
@@ -808,17 +876,31 @@
       <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>360</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3111495246326707</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="10">
+        <f>K4/$K$2</f>
+        <v>1.0615711252653928E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -828,8 +910,16 @@
       <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="E5" s="1">
+        <v>838</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.72428694900605017</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
@@ -839,15 +929,29 @@
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="1">
+        <v>297</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.25669835782195333</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="K6" s="11">
+        <v>1884</v>
+      </c>
+      <c r="L6" s="12">
+        <f>K6/$K$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -857,188 +961,300 @@
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>637</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.550561797752809</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="F8" s="1" t="s">
+      <c r="K7" s="1">
+        <v>157</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" ref="L7:L21" si="1">K7/$K$6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="K8" s="1">
+        <v>137</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="1"/>
+        <v>7.2717622080679403E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="K9" s="1">
+        <v>124</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="1"/>
+        <v>6.5817409766454352E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="18">
+      <c r="K10" s="1">
+        <v>738</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.39171974522292996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="18">
       <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="18">
+      <c r="K11" s="1">
+        <v>636</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.33757961783439489</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="18">
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="18">
+      <c r="K12" s="1">
+        <v>825</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.43789808917197454</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="18">
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="F14" s="1" t="s">
+      <c r="K13" s="1">
+        <v>945</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.50159235668789814</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="F15" s="1" t="s">
+      <c r="K14" s="1">
+        <v>945</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.50159235668789814</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="F16" s="1" t="s">
+      <c r="K15" s="1">
+        <v>659</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3497876857749469</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="1" t="s">
+      <c r="K16" s="1">
+        <v>676</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.35881104033970274</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="1" t="s">
+      <c r="K17" s="1">
+        <v>491</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.26061571125265393</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="1" t="s">
+      <c r="K18" s="1">
+        <v>764</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.40552016985138006</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="1" t="s">
+      <c r="K19" s="1">
+        <v>192</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10191082802547771</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="1" t="s">
+      <c r="K20" s="1">
+        <v>85</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="1"/>
+        <v>4.511677282377919E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="K21" s="1">
+        <v>85</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="1"/>
+        <v>4.511677282377919E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1262,8 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>

--- a/Data_structure.xlsx
+++ b/Data_structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>BSAN</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>-1.49300 -0.89960 -0.13470 -0.01265  0.78640  2.25200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Ca           P         SOC          pH        Sand</t>
+  </si>
+  <si>
+    <t>Ca    1.1460583  0.10467265  0.50937094  0.58107705 -0.30289553</t>
+  </si>
+  <si>
+    <t>P     0.1046726  0.99095901  0.18718101  0.14088894 -0.02732151</t>
+  </si>
+  <si>
+    <t>SOC   0.5093709  0.18718101  1.30413986  0.02601784 -0.56710221</t>
+  </si>
+  <si>
+    <t>pH    0.5810770  0.14088894  0.02601784  0.84681277 -0.04536346</t>
+  </si>
+  <si>
+    <t>Sand -0.3028955 -0.02732151 -0.56710221 -0.04536346  0.97717141</t>
   </si>
 </sst>
 </file>
@@ -421,6 +439,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -433,10 +455,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -786,7 +804,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -807,29 +825,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="7">
         <v>1157</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <f>E2/$E$2</f>
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="11">
+      <c r="K2" s="7">
         <v>1884</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="8">
         <f>K2/$K$2</f>
         <v>1</v>
       </c>
@@ -847,7 +865,7 @@
       <c r="E3" s="1">
         <v>350</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F7" si="0">E3/$E$2</f>
         <v>0.30250648228176319</v>
       </c>
@@ -861,7 +879,7 @@
       <c r="K3" s="1">
         <v>1880</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <f>K3/$K$2</f>
         <v>0.99787685774946921</v>
       </c>
@@ -879,7 +897,7 @@
       <c r="E4" s="1">
         <v>360</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.3111495246326707</v>
       </c>
@@ -895,7 +913,7 @@
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <f>K4/$K$2</f>
         <v>1.0615711252653928E-3</v>
       </c>
@@ -913,11 +931,11 @@
       <c r="E5" s="1">
         <v>838</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.72428694900605017</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
@@ -932,21 +950,21 @@
       <c r="E6" s="1">
         <v>297</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.25669835782195333</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="7">
         <v>1884</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f>K6/$K$6</f>
         <v>1</v>
       </c>
@@ -964,7 +982,7 @@
       <c r="E7" s="1">
         <v>637</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0.550561797752809</v>
       </c>
@@ -980,7 +998,7 @@
       <c r="K7" s="1">
         <v>157</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L21" si="1">K7/$K$6</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -998,16 +1016,16 @@
       <c r="K8" s="1">
         <v>137</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="6">
         <f t="shared" si="1"/>
         <v>7.2717622080679403E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="12"/>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,16 +1038,16 @@
       <c r="K9" s="1">
         <v>124</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
         <v>6.5817409766454352E-2</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="9"/>
       <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,16 +1060,16 @@
       <c r="K10" s="1">
         <v>738</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="6">
         <f t="shared" si="1"/>
         <v>0.39171974522292996</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="18">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="9"/>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,16 +1082,16 @@
       <c r="K11" s="1">
         <v>636</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="6">
         <f t="shared" si="1"/>
         <v>0.33757961783439489</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="18">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="9"/>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,16 +1104,16 @@
       <c r="K12" s="1">
         <v>825</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="6">
         <f t="shared" si="1"/>
         <v>0.43789808917197454</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="18">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1126,7 @@
       <c r="K13" s="1">
         <v>945</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>0.50159235668789814</v>
       </c>
@@ -1126,12 +1144,15 @@
       <c r="K14" s="1">
         <v>945</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="6">
         <f t="shared" si="1"/>
         <v>0.50159235668789814</v>
       </c>
     </row>
     <row r="15" spans="2:12">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1144,12 +1165,15 @@
       <c r="K15" s="1">
         <v>659</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="6">
         <f t="shared" si="1"/>
         <v>0.3497876857749469</v>
       </c>
     </row>
     <row r="16" spans="2:12">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1162,12 +1186,15 @@
       <c r="K16" s="1">
         <v>676</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="6">
         <f t="shared" si="1"/>
         <v>0.35881104033970274</v>
       </c>
     </row>
-    <row r="17" spans="8:12">
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,12 +1207,15 @@
       <c r="K17" s="1">
         <v>491</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="6">
         <f t="shared" si="1"/>
         <v>0.26061571125265393</v>
       </c>
     </row>
-    <row r="18" spans="8:12">
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1198,12 +1228,15 @@
       <c r="K18" s="1">
         <v>764</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="6">
         <f t="shared" si="1"/>
         <v>0.40552016985138006</v>
       </c>
     </row>
-    <row r="19" spans="8:12">
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1216,12 +1249,15 @@
       <c r="K19" s="1">
         <v>192</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>0.10191082802547771</v>
       </c>
     </row>
-    <row r="20" spans="8:12">
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1234,12 +1270,12 @@
       <c r="K20" s="1">
         <v>85</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="6">
         <f t="shared" si="1"/>
         <v>4.511677282377919E-2</v>
       </c>
     </row>
-    <row r="21" spans="8:12">
+    <row r="21" spans="2:12">
       <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1288,7 @@
       <c r="K21" s="1">
         <v>85</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
         <v>4.511677282377919E-2</v>
       </c>
